--- a/assets/test_images/current_data.xlsx
+++ b/assets/test_images/current_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Work_OCR\test_pic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Work_OCR\assets\test_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282936E-A35D-4129-B16A-418700021649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7240E38C-C5B4-4F26-8591-496C5408EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>10u</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>8.88m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999.9n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -186,7 +190,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +474,7 @@
   <dimension ref="B6:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>

--- a/assets/test_images/current_data.xlsx
+++ b/assets/test_images/current_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Work_OCR\test_pic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Work_OCR\assets\test_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6282936E-A35D-4129-B16A-418700021649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945EC6FD-3898-4893-8274-3FB12C44D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="407">
   <si>
     <t>10u</t>
   </si>
@@ -138,6 +139,1120 @@
   <si>
     <t>8.88m</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999.9n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3n</t>
+  </si>
+  <si>
+    <t>2n</t>
+  </si>
+  <si>
+    <t>28n</t>
+  </si>
+  <si>
+    <t>-4.9n</t>
+  </si>
+  <si>
+    <t>15n</t>
+  </si>
+  <si>
+    <t>-800u</t>
+  </si>
+  <si>
+    <t>1.2m</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>60n</t>
+  </si>
+  <si>
+    <t>0.12u</t>
+  </si>
+  <si>
+    <t>5n</t>
+  </si>
+  <si>
+    <t>-6n</t>
+  </si>
+  <si>
+    <t>7.5u</t>
+  </si>
+  <si>
+    <t>-9.9n</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>-0.5m</t>
+  </si>
+  <si>
+    <t>1.000m</t>
+  </si>
+  <si>
+    <t>-2.500m</t>
+  </si>
+  <si>
+    <t>3.300u</t>
+  </si>
+  <si>
+    <t>-4.700u</t>
+  </si>
+  <si>
+    <t>5.600n</t>
+  </si>
+  <si>
+    <t>-6.800n</t>
+  </si>
+  <si>
+    <t>7.900p</t>
+  </si>
+  <si>
+    <t>-8.100p</t>
+  </si>
+  <si>
+    <t>9.999u</t>
+  </si>
+  <si>
+    <t>-0.001u</t>
+  </si>
+  <si>
+    <t>12.34n</t>
+  </si>
+  <si>
+    <t>-56.78n</t>
+  </si>
+  <si>
+    <t>90.12p</t>
+  </si>
+  <si>
+    <t>-34.56p</t>
+  </si>
+  <si>
+    <t>7.89m</t>
+  </si>
+  <si>
+    <t>-1.23m</t>
+  </si>
+  <si>
+    <t>450n</t>
+  </si>
+  <si>
+    <t>-2200u</t>
+  </si>
+  <si>
+    <t>330k</t>
+  </si>
+  <si>
+    <t>-470k</t>
+  </si>
+  <si>
+    <t>5.6M</t>
+  </si>
+  <si>
+    <t>-6.8M</t>
+  </si>
+  <si>
+    <t>7.9G</t>
+  </si>
+  <si>
+    <t>-8.1G</t>
+  </si>
+  <si>
+    <t>2.00u</t>
+  </si>
+  <si>
+    <t>-3.00u</t>
+  </si>
+  <si>
+    <t>4.00u</t>
+  </si>
+  <si>
+    <t>-5.00u</t>
+  </si>
+  <si>
+    <t>6.00u</t>
+  </si>
+  <si>
+    <t>-7.00u</t>
+  </si>
+  <si>
+    <t>8.00u</t>
+  </si>
+  <si>
+    <t>-9.00u</t>
+  </si>
+  <si>
+    <t>0.10n</t>
+  </si>
+  <si>
+    <t>-0.20n</t>
+  </si>
+  <si>
+    <t>0.30n</t>
+  </si>
+  <si>
+    <t>-0.40n</t>
+  </si>
+  <si>
+    <t>0.50n</t>
+  </si>
+  <si>
+    <t>-0.60n</t>
+  </si>
+  <si>
+    <t>0.70n</t>
+  </si>
+  <si>
+    <t>-0.80n</t>
+  </si>
+  <si>
+    <t>1.5p</t>
+  </si>
+  <si>
+    <t>-2.5p</t>
+  </si>
+  <si>
+    <t>3.5p</t>
+  </si>
+  <si>
+    <t>-4.5p</t>
+  </si>
+  <si>
+    <t>5.5p</t>
+  </si>
+  <si>
+    <t>-6.5p</t>
+  </si>
+  <si>
+    <t>7.5p</t>
+  </si>
+  <si>
+    <t>-8.5p</t>
+  </si>
+  <si>
+    <t>10f</t>
+  </si>
+  <si>
+    <t>-20f</t>
+  </si>
+  <si>
+    <t>30f</t>
+  </si>
+  <si>
+    <t>-40f</t>
+  </si>
+  <si>
+    <t>50f</t>
+  </si>
+  <si>
+    <t>-60f</t>
+  </si>
+  <si>
+    <t>70f</t>
+  </si>
+  <si>
+    <t>-80f</t>
+  </si>
+  <si>
+    <t>0.001u</t>
+  </si>
+  <si>
+    <t>-0.002u</t>
+  </si>
+  <si>
+    <t>0.005u</t>
+  </si>
+  <si>
+    <t>-0.006u</t>
+  </si>
+  <si>
+    <t>0.007u</t>
+  </si>
+  <si>
+    <t>-0.008u</t>
+  </si>
+  <si>
+    <t>12.0m</t>
+  </si>
+  <si>
+    <t>-34.0m</t>
+  </si>
+  <si>
+    <t>56.0m</t>
+  </si>
+  <si>
+    <t>-78.0m</t>
+  </si>
+  <si>
+    <t>90.0m</t>
+  </si>
+  <si>
+    <t>-12.0m</t>
+  </si>
+  <si>
+    <t>34.0m</t>
+  </si>
+  <si>
+    <t>-56.0m</t>
+  </si>
+  <si>
+    <t>1.00k</t>
+  </si>
+  <si>
+    <t>-2.00k</t>
+  </si>
+  <si>
+    <t>3.00k</t>
+  </si>
+  <si>
+    <t>-4.00k</t>
+  </si>
+  <si>
+    <t>5.00k</t>
+  </si>
+  <si>
+    <t>-6.00k</t>
+  </si>
+  <si>
+    <t>7.00k</t>
+  </si>
+  <si>
+    <t>-8.00k</t>
+  </si>
+  <si>
+    <t>0.25M</t>
+  </si>
+  <si>
+    <t>-0.50M</t>
+  </si>
+  <si>
+    <t>0.75M</t>
+  </si>
+  <si>
+    <t>-1.00M</t>
+  </si>
+  <si>
+    <t>1.25M</t>
+  </si>
+  <si>
+    <t>-1.50M</t>
+  </si>
+  <si>
+    <t>1.75M</t>
+  </si>
+  <si>
+    <t>-2.00M</t>
+  </si>
+  <si>
+    <t>0.002G</t>
+  </si>
+  <si>
+    <t>-0.004G</t>
+  </si>
+  <si>
+    <t>0.006G</t>
+  </si>
+  <si>
+    <t>-0.008G</t>
+  </si>
+  <si>
+    <t>0.010G</t>
+  </si>
+  <si>
+    <t>-0.012G</t>
+  </si>
+  <si>
+    <t>0.014G</t>
+  </si>
+  <si>
+    <t>-0.016G</t>
+  </si>
+  <si>
+    <t>999u</t>
+  </si>
+  <si>
+    <t>-888u</t>
+  </si>
+  <si>
+    <t>777u</t>
+  </si>
+  <si>
+    <t>-666u</t>
+  </si>
+  <si>
+    <t>555u</t>
+  </si>
+  <si>
+    <t>-444u</t>
+  </si>
+  <si>
+    <t>333u</t>
+  </si>
+  <si>
+    <t>-222u</t>
+  </si>
+  <si>
+    <t>101n</t>
+  </si>
+  <si>
+    <t>-202n</t>
+  </si>
+  <si>
+    <t>303n</t>
+  </si>
+  <si>
+    <t>-404n</t>
+  </si>
+  <si>
+    <t>505n</t>
+  </si>
+  <si>
+    <t>-606n</t>
+  </si>
+  <si>
+    <t>707n</t>
+  </si>
+  <si>
+    <t>-808n</t>
+  </si>
+  <si>
+    <t>1.234u</t>
+  </si>
+  <si>
+    <t>-2.345u</t>
+  </si>
+  <si>
+    <t>3.456u</t>
+  </si>
+  <si>
+    <t>-4.567u</t>
+  </si>
+  <si>
+    <t>5.678u</t>
+  </si>
+  <si>
+    <t>-6.789u</t>
+  </si>
+  <si>
+    <t>7.890u</t>
+  </si>
+  <si>
+    <t>-8.901u</t>
+  </si>
+  <si>
+    <t>9.99m</t>
+  </si>
+  <si>
+    <t>-8.88m</t>
+  </si>
+  <si>
+    <t>7.77m</t>
+  </si>
+  <si>
+    <t>-6.66m</t>
+  </si>
+  <si>
+    <t>5.55m</t>
+  </si>
+  <si>
+    <t>-4.44m</t>
+  </si>
+  <si>
+    <t>3.33m</t>
+  </si>
+  <si>
+    <t>-2.22m</t>
+  </si>
+  <si>
+    <t>0.0005u</t>
+  </si>
+  <si>
+    <t>-0.0006u</t>
+  </si>
+  <si>
+    <t>0.0007u</t>
+  </si>
+  <si>
+    <t>-0.0008u</t>
+  </si>
+  <si>
+    <t>0.0009u</t>
+  </si>
+  <si>
+    <t>-0.0010u</t>
+  </si>
+  <si>
+    <t>0.0011u</t>
+  </si>
+  <si>
+    <t>-0.0012u</t>
+  </si>
+  <si>
+    <t>15p</t>
+  </si>
+  <si>
+    <t>-25p</t>
+  </si>
+  <si>
+    <t>35p</t>
+  </si>
+  <si>
+    <t>-45p</t>
+  </si>
+  <si>
+    <t>55p</t>
+  </si>
+  <si>
+    <t>-65p</t>
+  </si>
+  <si>
+    <t>75p</t>
+  </si>
+  <si>
+    <t>-85p</t>
+  </si>
+  <si>
+    <t>1.5n</t>
+  </si>
+  <si>
+    <t>-2.5n</t>
+  </si>
+  <si>
+    <t>3.5n</t>
+  </si>
+  <si>
+    <t>-4.5n</t>
+  </si>
+  <si>
+    <t>5.5n</t>
+  </si>
+  <si>
+    <t>-6.5n</t>
+  </si>
+  <si>
+    <t>7.5n</t>
+  </si>
+  <si>
+    <t>-8.5n</t>
+  </si>
+  <si>
+    <t>250u</t>
+  </si>
+  <si>
+    <t>-260u</t>
+  </si>
+  <si>
+    <t>270u</t>
+  </si>
+  <si>
+    <t>-280u</t>
+  </si>
+  <si>
+    <t>290u</t>
+  </si>
+  <si>
+    <t>-300u</t>
+  </si>
+  <si>
+    <t>310u</t>
+  </si>
+  <si>
+    <t>-320u</t>
+  </si>
+  <si>
+    <t>3.141u</t>
+  </si>
+  <si>
+    <t>-2.718u</t>
+  </si>
+  <si>
+    <t>1.618u</t>
+  </si>
+  <si>
+    <t>-0.577u</t>
+  </si>
+  <si>
+    <t>0.693u</t>
+  </si>
+  <si>
+    <t>-1.414u</t>
+  </si>
+  <si>
+    <t>2.236u</t>
+  </si>
+  <si>
+    <t>-3.732u</t>
+  </si>
+  <si>
+    <t>400n</t>
+  </si>
+  <si>
+    <t>600n</t>
+  </si>
+  <si>
+    <t>-700n</t>
+  </si>
+  <si>
+    <t>800n</t>
+  </si>
+  <si>
+    <t>-900n</t>
+  </si>
+  <si>
+    <t>1000n</t>
+  </si>
+  <si>
+    <t>-1100n</t>
+  </si>
+  <si>
+    <t>0.9u</t>
+  </si>
+  <si>
+    <t>-0.8u</t>
+  </si>
+  <si>
+    <t>0.7u</t>
+  </si>
+  <si>
+    <t>-0.6u</t>
+  </si>
+  <si>
+    <t>0.5u</t>
+  </si>
+  <si>
+    <t>-0.4u</t>
+  </si>
+  <si>
+    <t>0.3u</t>
+  </si>
+  <si>
+    <t>-0.2u</t>
+  </si>
+  <si>
+    <t>6.0k</t>
+  </si>
+  <si>
+    <t>-5.0k</t>
+  </si>
+  <si>
+    <t>4.0k</t>
+  </si>
+  <si>
+    <t>-3.0k</t>
+  </si>
+  <si>
+    <t>2.0k</t>
+  </si>
+  <si>
+    <t>-1.0k</t>
+  </si>
+  <si>
+    <t>0.5k</t>
+  </si>
+  <si>
+    <t>-0.25k</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>-24M</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>-48M</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>-72M</t>
+  </si>
+  <si>
+    <t>84M</t>
+  </si>
+  <si>
+    <t>-96M</t>
+  </si>
+  <si>
+    <t>0.12G</t>
+  </si>
+  <si>
+    <t>-0.24G</t>
+  </si>
+  <si>
+    <t>0.36G</t>
+  </si>
+  <si>
+    <t>-0.48G</t>
+  </si>
+  <si>
+    <t>0.60G</t>
+  </si>
+  <si>
+    <t>-0.72G</t>
+  </si>
+  <si>
+    <t>0.84G</t>
+  </si>
+  <si>
+    <t>-0.96G</t>
+  </si>
+  <si>
+    <t>7f</t>
+  </si>
+  <si>
+    <t>-14f</t>
+  </si>
+  <si>
+    <t>21f</t>
+  </si>
+  <si>
+    <t>-28f</t>
+  </si>
+  <si>
+    <t>35f</t>
+  </si>
+  <si>
+    <t>-42f</t>
+  </si>
+  <si>
+    <t>49f</t>
+  </si>
+  <si>
+    <t>-56f</t>
+  </si>
+  <si>
+    <t>0.33p</t>
+  </si>
+  <si>
+    <t>-0.66p</t>
+  </si>
+  <si>
+    <t>0.99p</t>
+  </si>
+  <si>
+    <t>-1.32p</t>
+  </si>
+  <si>
+    <t>1.65p</t>
+  </si>
+  <si>
+    <t>-1.98p</t>
+  </si>
+  <si>
+    <t>2.31p</t>
+  </si>
+  <si>
+    <t>-2.64p</t>
+  </si>
+  <si>
+    <t>11.11n</t>
+  </si>
+  <si>
+    <t>-22.22n</t>
+  </si>
+  <si>
+    <t>33.33n</t>
+  </si>
+  <si>
+    <t>-44.44n</t>
+  </si>
+  <si>
+    <t>55.55n</t>
+  </si>
+  <si>
+    <t>-66.66n</t>
+  </si>
+  <si>
+    <t>77.77n</t>
+  </si>
+  <si>
+    <t>-88.88n</t>
+  </si>
+  <si>
+    <t>0.111u</t>
+  </si>
+  <si>
+    <t>-0.222u</t>
+  </si>
+  <si>
+    <t>0.333u</t>
+  </si>
+  <si>
+    <t>-0.444u</t>
+  </si>
+  <si>
+    <t>0.555u</t>
+  </si>
+  <si>
+    <t>-0.666u</t>
+  </si>
+  <si>
+    <t>0.777u</t>
+  </si>
+  <si>
+    <t>-0.888u</t>
+  </si>
+  <si>
+    <t>1.11m</t>
+  </si>
+  <si>
+    <t>111k</t>
+  </si>
+  <si>
+    <t>-222k</t>
+  </si>
+  <si>
+    <t>333k</t>
+  </si>
+  <si>
+    <t>-444k</t>
+  </si>
+  <si>
+    <t>555k</t>
+  </si>
+  <si>
+    <t>-666k</t>
+  </si>
+  <si>
+    <t>777k</t>
+  </si>
+  <si>
+    <t>-888k</t>
+  </si>
+  <si>
+    <t>0.011M</t>
+  </si>
+  <si>
+    <t>-0.022M</t>
+  </si>
+  <si>
+    <t>0.033M</t>
+  </si>
+  <si>
+    <t>-0.044M</t>
+  </si>
+  <si>
+    <t>0.055M</t>
+  </si>
+  <si>
+    <t>-0.066M</t>
+  </si>
+  <si>
+    <t>0.077M</t>
+  </si>
+  <si>
+    <t>-0.088M</t>
+  </si>
+  <si>
+    <t>9.0u</t>
+  </si>
+  <si>
+    <t>-10.0u</t>
+  </si>
+  <si>
+    <t>11.0u</t>
+  </si>
+  <si>
+    <t>-12.0u</t>
+  </si>
+  <si>
+    <t>13.0u</t>
+  </si>
+  <si>
+    <t>-14.0u</t>
+  </si>
+  <si>
+    <t>15.0u</t>
+  </si>
+  <si>
+    <t>-16.0u</t>
+  </si>
+  <si>
+    <t>0.09n</t>
+  </si>
+  <si>
+    <t>-0.10n</t>
+  </si>
+  <si>
+    <t>0.11n</t>
+  </si>
+  <si>
+    <t>-0.12n</t>
+  </si>
+  <si>
+    <t>0.13n</t>
+  </si>
+  <si>
+    <t>-0.14n</t>
+  </si>
+  <si>
+    <t>0.15n</t>
+  </si>
+  <si>
+    <t>-0.16n</t>
+  </si>
+  <si>
+    <t>90p</t>
+  </si>
+  <si>
+    <t>-100p</t>
+  </si>
+  <si>
+    <t>110p</t>
+  </si>
+  <si>
+    <t>-120p</t>
+  </si>
+  <si>
+    <t>130p</t>
+  </si>
+  <si>
+    <t>-140p</t>
+  </si>
+  <si>
+    <t>150p</t>
+  </si>
+  <si>
+    <t>-160p</t>
+  </si>
+  <si>
+    <t>0.009u</t>
+  </si>
+  <si>
+    <t>-0.010u</t>
+  </si>
+  <si>
+    <t>0.011u</t>
+  </si>
+  <si>
+    <t>-0.012u</t>
+  </si>
+  <si>
+    <t>0.013u</t>
+  </si>
+  <si>
+    <t>-0.014u</t>
+  </si>
+  <si>
+    <t>0.015u</t>
+  </si>
+  <si>
+    <t>-0.016u</t>
+  </si>
+  <si>
+    <t>2.2m</t>
+  </si>
+  <si>
+    <t>-2.4m</t>
+  </si>
+  <si>
+    <t>2.6m</t>
+  </si>
+  <si>
+    <t>-2.8m</t>
+  </si>
+  <si>
+    <t>-3.2m</t>
+  </si>
+  <si>
+    <t>3.4m</t>
+  </si>
+  <si>
+    <t>-3.6m</t>
+  </si>
+  <si>
+    <t>220u</t>
+  </si>
+  <si>
+    <t>-240u</t>
+  </si>
+  <si>
+    <t>260u</t>
+  </si>
+  <si>
+    <t>300u</t>
+  </si>
+  <si>
+    <t>340u</t>
+  </si>
+  <si>
+    <t>-360u</t>
+  </si>
+  <si>
+    <t>22n</t>
+  </si>
+  <si>
+    <t>-24n</t>
+  </si>
+  <si>
+    <t>26n</t>
+  </si>
+  <si>
+    <t>-28n</t>
+  </si>
+  <si>
+    <t>30n</t>
+  </si>
+  <si>
+    <t>-32n</t>
+  </si>
+  <si>
+    <t>34n</t>
+  </si>
+  <si>
+    <t>-36n</t>
+  </si>
+  <si>
+    <t>2p</t>
+  </si>
+  <si>
+    <t>-4p</t>
+  </si>
+  <si>
+    <t>6p</t>
+  </si>
+  <si>
+    <t>-8p</t>
+  </si>
+  <si>
+    <t>10p</t>
+  </si>
+  <si>
+    <t>-12p</t>
+  </si>
+  <si>
+    <t>14p</t>
+  </si>
+  <si>
+    <t>-16p</t>
+  </si>
+  <si>
+    <t>0.0002m</t>
+  </si>
+  <si>
+    <t>-0.0004m</t>
+  </si>
+  <si>
+    <t>0.0006m</t>
+  </si>
+  <si>
+    <t>-0.0008m</t>
+  </si>
+  <si>
+    <t>0.0010m</t>
+  </si>
+  <si>
+    <t>-0.0012m</t>
+  </si>
+  <si>
+    <t>0.0014m</t>
+  </si>
+  <si>
+    <t>-0.0016m</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>-10k</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>-20k</t>
+  </si>
+  <si>
+    <t>25k</t>
+  </si>
+  <si>
+    <t>-30k</t>
+  </si>
+  <si>
+    <t>35k</t>
+  </si>
+  <si>
+    <t>-40k</t>
+  </si>
+  <si>
+    <t>0.5M</t>
+  </si>
+  <si>
+    <t>-1.0M</t>
+  </si>
+  <si>
+    <t>1.5M</t>
+  </si>
+  <si>
+    <t>-2.0M</t>
+  </si>
+  <si>
+    <t>2.5M</t>
+  </si>
+  <si>
+    <t>-3.0M</t>
+  </si>
+  <si>
+    <t>3.5M</t>
+  </si>
+  <si>
+    <t>-4.0M</t>
+  </si>
+  <si>
+    <t>0.005G</t>
+  </si>
+  <si>
+    <t>-0.010G</t>
+  </si>
+  <si>
+    <t>0.015G</t>
+  </si>
+  <si>
+    <t>-0.020G</t>
+  </si>
+  <si>
+    <t>0.025G</t>
+  </si>
+  <si>
+    <t>-0.030G</t>
+  </si>
+  <si>
+    <t>0.035G</t>
+  </si>
+  <si>
+    <t>-0.040G</t>
+  </si>
+  <si>
+    <t>-1.5n</t>
+  </si>
+  <si>
+    <t>2.5p</t>
+  </si>
+  <si>
+    <t>-3.5f</t>
+  </si>
+  <si>
+    <t>4.5m</t>
+  </si>
+  <si>
+    <t>-5.5k</t>
+  </si>
+  <si>
+    <t>6.5M</t>
+  </si>
+  <si>
+    <t>-7.5G</t>
   </si>
 </sst>
 </file>
@@ -145,7 +1260,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -186,7 +1301,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1008,7 +2123,7 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1038,6 +2153,1427 @@
       </c>
       <c r="G41" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72369B23-11EA-4F93-BE58-8525F55B7F00}">
+  <dimension ref="B3:I56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>255</v>
+      </c>
+      <c r="H33" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H34" t="s">
+        <v>264</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" t="s">
+        <v>271</v>
+      </c>
+      <c r="H35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" t="s">
+        <v>280</v>
+      </c>
+      <c r="I36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" t="s">
+        <v>284</v>
+      </c>
+      <c r="E37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" t="s">
+        <v>287</v>
+      </c>
+      <c r="H37" t="s">
+        <v>288</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" t="s">
+        <v>296</v>
+      </c>
+      <c r="H39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" t="s">
+        <v>304</v>
+      </c>
+      <c r="H40" t="s">
+        <v>305</v>
+      </c>
+      <c r="I40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E41" t="s">
+        <v>310</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H41" t="s">
+        <v>313</v>
+      </c>
+      <c r="I41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" t="s">
+        <v>318</v>
+      </c>
+      <c r="F42" t="s">
+        <v>319</v>
+      </c>
+      <c r="G42" t="s">
+        <v>320</v>
+      </c>
+      <c r="H42" t="s">
+        <v>321</v>
+      </c>
+      <c r="I42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" t="s">
+        <v>324</v>
+      </c>
+      <c r="D43" t="s">
+        <v>325</v>
+      </c>
+      <c r="E43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" t="s">
+        <v>329</v>
+      </c>
+      <c r="I43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F44" t="s">
+        <v>335</v>
+      </c>
+      <c r="G44" t="s">
+        <v>336</v>
+      </c>
+      <c r="H44" t="s">
+        <v>337</v>
+      </c>
+      <c r="I44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>339</v>
+      </c>
+      <c r="C45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" t="s">
+        <v>341</v>
+      </c>
+      <c r="E45" t="s">
+        <v>342</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>343</v>
+      </c>
+      <c r="H45" t="s">
+        <v>344</v>
+      </c>
+      <c r="I45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" t="s">
+        <v>347</v>
+      </c>
+      <c r="D46" t="s">
+        <v>348</v>
+      </c>
+      <c r="E46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46" t="s">
+        <v>350</v>
+      </c>
+      <c r="I46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" t="s">
+        <v>353</v>
+      </c>
+      <c r="D47" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" t="s">
+        <v>355</v>
+      </c>
+      <c r="F47" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" t="s">
+        <v>357</v>
+      </c>
+      <c r="H47" t="s">
+        <v>358</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>360</v>
+      </c>
+      <c r="C48" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E48" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" t="s">
+        <v>365</v>
+      </c>
+      <c r="H48" t="s">
+        <v>366</v>
+      </c>
+      <c r="I48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" t="s">
+        <v>370</v>
+      </c>
+      <c r="E49" t="s">
+        <v>371</v>
+      </c>
+      <c r="F49" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" t="s">
+        <v>373</v>
+      </c>
+      <c r="H49" t="s">
+        <v>374</v>
+      </c>
+      <c r="I49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" t="s">
+        <v>377</v>
+      </c>
+      <c r="D50" t="s">
+        <v>378</v>
+      </c>
+      <c r="E50" t="s">
+        <v>379</v>
+      </c>
+      <c r="F50" t="s">
+        <v>380</v>
+      </c>
+      <c r="G50" t="s">
+        <v>381</v>
+      </c>
+      <c r="H50" t="s">
+        <v>382</v>
+      </c>
+      <c r="I50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" t="s">
+        <v>386</v>
+      </c>
+      <c r="E51" t="s">
+        <v>387</v>
+      </c>
+      <c r="F51" t="s">
+        <v>388</v>
+      </c>
+      <c r="G51" t="s">
+        <v>389</v>
+      </c>
+      <c r="H51" t="s">
+        <v>390</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>392</v>
+      </c>
+      <c r="C52" t="s">
+        <v>393</v>
+      </c>
+      <c r="D52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E52" t="s">
+        <v>395</v>
+      </c>
+      <c r="F52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G52" t="s">
+        <v>397</v>
+      </c>
+      <c r="H52" t="s">
+        <v>398</v>
+      </c>
+      <c r="I52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53" t="s">
+        <v>402</v>
+      </c>
+      <c r="F53" t="s">
+        <v>403</v>
+      </c>
+      <c r="G53" t="s">
+        <v>404</v>
+      </c>
+      <c r="H53" t="s">
+        <v>405</v>
+      </c>
+      <c r="I53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
